--- a/Infografía/Salud mental estudiantes.xlsx
+++ b/Infografía/Salud mental estudiantes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/182b438ead67ba54/Documentos/TABATA/Modelos Lineales/Tareas-Modelos-Lineales/Infografía/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{28EF1DA4-7D9C-4F6A-A7DD-0FA832C8193A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18E45F4A-951B-4998-81A7-2A5A63062F7C}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{28EF1DA4-7D9C-4F6A-A7DD-0FA832C8193A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9459BADD-F1A4-4582-B8F3-E12F24BE2ECF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DE1A32E4-6725-4450-9E7D-4C1D5587E881}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="37">
   <si>
     <t>Timestamp</t>
   </si>
@@ -67,9 +67,6 @@
     <t>What is your CGPA?</t>
   </si>
   <si>
-    <t>Marital status</t>
-  </si>
-  <si>
     <t>Do you have Depression?</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
   </si>
   <si>
     <t>Female</t>
-  </si>
-  <si>
-    <t>Engineering</t>
   </si>
   <si>
     <t>year 1</t>
@@ -103,22 +97,10 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Islamic education</t>
-  </si>
-  <si>
     <t>year 2</t>
   </si>
   <si>
-    <t>BIT</t>
-  </si>
-  <si>
-    <t>Laws</t>
-  </si>
-  <si>
     <t>year 3</t>
-  </si>
-  <si>
-    <t>Mathemathics</t>
   </si>
   <si>
     <t>year 4</t>
@@ -127,148 +109,55 @@
     <t>3.50 - 4.00</t>
   </si>
   <si>
-    <t>Pendidikan islam</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.50 - 4.00 </t>
-  </si>
-  <si>
-    <t>BCS</t>
-  </si>
-  <si>
-    <t>Human Resources</t>
   </si>
   <si>
     <t>2.50 - 2.99</t>
   </si>
   <si>
-    <t>Irkhs</t>
-  </si>
-  <si>
-    <t>Psychology</t>
-  </si>
-  <si>
-    <t>KENMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accounting </t>
-  </si>
-  <si>
-    <t>ENM</t>
-  </si>
-  <si>
-    <t>Marine science</t>
-  </si>
-  <si>
-    <t>KOE</t>
-  </si>
-  <si>
-    <t>Banking Studies</t>
-  </si>
-  <si>
-    <t>Business Administration</t>
-  </si>
-  <si>
     <t>2.00 - 2.49</t>
-  </si>
-  <si>
-    <t>Law</t>
-  </si>
-  <si>
-    <t>KIRKHS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usuluddin </t>
   </si>
   <si>
     <t>0 - 1.99</t>
   </si>
   <si>
-    <t>TAASL</t>
+    <t>TI</t>
   </si>
   <si>
-    <t>Engine</t>
+    <t>MarTIal status</t>
   </si>
   <si>
-    <t>ALA</t>
+    <t>Ingeniería</t>
   </si>
   <si>
-    <t>Biomedical science</t>
+    <t>Leyes</t>
   </si>
   <si>
-    <t>koe</t>
+    <t xml:space="preserve">Leyes </t>
   </si>
   <si>
-    <t>Kirkhs</t>
+    <t>Economía y gestión</t>
   </si>
   <si>
-    <t>BENL</t>
+    <t xml:space="preserve">Economía y gestión </t>
   </si>
   <si>
-    <t>Benl</t>
+    <t xml:space="preserve">Medicina </t>
   </si>
   <si>
-    <t>IT</t>
+    <t>Medicina</t>
   </si>
   <si>
-    <t>CTS</t>
+    <t>Religión/Sociología/Psicología</t>
   </si>
   <si>
-    <t>engin</t>
+    <t xml:space="preserve">Religión/Sociología/Psicología </t>
   </si>
   <si>
-    <t>Econs</t>
+    <t>Medio ambiente</t>
   </si>
   <si>
-    <t>MHSC</t>
-  </si>
-  <si>
-    <t>Malcom</t>
-  </si>
-  <si>
-    <t>Kop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human Sciences </t>
-  </si>
-  <si>
-    <t>Biotechnology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Communication </t>
-  </si>
-  <si>
-    <t>Diploma Nursing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pendidikan Islam </t>
-  </si>
-  <si>
-    <t>Radiography</t>
-  </si>
-  <si>
-    <t>psychology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiqh fatwa </t>
-  </si>
-  <si>
-    <t>DIPLOMA TESL</t>
-  </si>
-  <si>
-    <t>Koe</t>
-  </si>
-  <si>
-    <t>Fiqh</t>
-  </si>
-  <si>
-    <t>Islamic Education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nursing </t>
-  </si>
-  <si>
-    <t>Pendidikan Islam</t>
+    <t>Letras/Arte</t>
   </si>
 </sst>
 </file>
@@ -355,6 +244,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatosExternos_1" connectionId="1" xr16:uid="{297396C1-6CDD-4319-99AF-A7B5921BEFF9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="12">
@@ -377,11 +270,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C676C6E9-0B3B-439C-A740-92CE711A3AF6}" name="Student_Mental_health" displayName="Student_Mental_health" ref="A1:K102" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:K102" xr:uid="{C676C6E9-0B3B-439C-A740-92CE711A3AF6}">
-    <filterColumn colId="2">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K102" xr:uid="{C676C6E9-0B3B-439C-A740-92CE711A3AF6}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{8790A92F-E3B3-4687-90A1-F4518D889F49}" uniqueName="1" name="Timestamp" queryTableFieldId="1" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{A29C36F6-2936-41C4-ADA5-1E6E61A66B59}" uniqueName="2" name="Choose your gender" queryTableFieldId="2" dataDxfId="8"/>
@@ -389,7 +278,7 @@
     <tableColumn id="4" xr3:uid="{1A28B9C7-9F2C-470B-A1F8-CA91304CB807}" uniqueName="4" name="What is your course?" queryTableFieldId="4" dataDxfId="7"/>
     <tableColumn id="5" xr3:uid="{49FD5D1B-9C0A-45A1-A18D-0278DEB6037E}" uniqueName="5" name="Your current year of Study" queryTableFieldId="5" dataDxfId="6"/>
     <tableColumn id="6" xr3:uid="{CE72A9BB-A519-43CD-8E5E-9E0143020533}" uniqueName="6" name="What is your CGPA?" queryTableFieldId="6" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{73DBC3F4-1284-4FCD-9A6A-0B560CBD2183}" uniqueName="7" name="Marital status" queryTableFieldId="7" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{73DBC3F4-1284-4FCD-9A6A-0B560CBD2183}" uniqueName="7" name="MarTIal status" queryTableFieldId="7" dataDxfId="4"/>
     <tableColumn id="8" xr3:uid="{CEF0AC42-7C54-4144-9D30-4FF18FE2F186}" uniqueName="8" name="Do you have Depression?" queryTableFieldId="8" dataDxfId="3"/>
     <tableColumn id="9" xr3:uid="{19DE8C5A-B396-432E-96A0-139928437873}" uniqueName="9" name="Do you have Anxiety?" queryTableFieldId="9" dataDxfId="2"/>
     <tableColumn id="10" xr3:uid="{FD8F4CD7-3E27-449B-B19E-DC961D721E8F}" uniqueName="10" name="Do you have Panic attack?" queryTableFieldId="10" dataDxfId="1"/>
@@ -719,7 +608,7 @@
   <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -757,307 +646,307 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44020.501388888886</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>18</v>
       </c>
       <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44020.50277777778</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44020.503472222219</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44020.504166666666</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44020.509027777778</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44020.521527777775</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>44020.522222222222</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44020.522916666669</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>44020.524305555555</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>19</v>
@@ -1066,313 +955,313 @@
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>44020.527083333334</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>44020.527083333334</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>44020.527083333334</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>44020.527777777781</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>44020.52847222222</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>19</v>
       </c>
       <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
         <v>12</v>
       </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>44020.529861111114</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>44020.529861111114</v>
       </c>
       <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
         <v>17</v>
       </c>
-      <c r="C17">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" t="s">
-        <v>22</v>
-      </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>44020.531944444447</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>44020.536111111112</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>24</v>
@@ -1381,900 +1270,900 @@
         <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>44020.545138888891</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>44020.546527777777</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21">
         <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>44020.55</v>
       </c>
       <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" t="s">
         <v>11</v>
       </c>
-      <c r="C22">
-        <v>19</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
         <v>12</v>
       </c>
-      <c r="E22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" t="s">
-        <v>14</v>
-      </c>
       <c r="G22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>44020.550694444442</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>44020.550694444442</v>
       </c>
       <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
         <v>11</v>
       </c>
-      <c r="C24">
-        <v>24</v>
-      </c>
-      <c r="D24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" t="s">
-        <v>13</v>
-      </c>
       <c r="F24" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>44020.552083333336</v>
       </c>
       <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" t="s">
         <v>11</v>
       </c>
-      <c r="C25">
-        <v>24</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
         <v>12</v>
       </c>
-      <c r="E25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" t="s">
-        <v>14</v>
-      </c>
       <c r="G25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>44020.553472222222</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26">
         <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>44020.561805555553</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27">
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>44020.565972222219</v>
       </c>
       <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" t="s">
         <v>11</v>
       </c>
-      <c r="C28">
-        <v>19</v>
-      </c>
-      <c r="D28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" t="s">
-        <v>13</v>
-      </c>
       <c r="F28" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>44020.570138888892</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C29">
         <v>18</v>
       </c>
       <c r="D29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" t="s">
         <v>12</v>
       </c>
-      <c r="E29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" t="s">
-        <v>14</v>
-      </c>
       <c r="G29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>44020.581944444442</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30">
         <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E30" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F30" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>44020.586805555555</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31">
         <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F31" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>44020.602083333331</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32">
         <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E32" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>44020.603472222225</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C33">
         <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>44020.603472222225</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C34">
         <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>44020.604861111111</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C35">
         <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E35" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>44020.611805555556</v>
       </c>
       <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>19</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" t="s">
         <v>11</v>
       </c>
-      <c r="C36">
-        <v>19</v>
-      </c>
-      <c r="D36" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" t="s">
-        <v>13</v>
-      </c>
       <c r="F36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K36" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>44020.613194444442</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C37">
         <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>44020.613194444442</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C38">
         <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E38" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G38" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J38" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K38" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>44020.614583333336</v>
       </c>
       <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>19</v>
+      </c>
+      <c r="D39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" t="s">
         <v>11</v>
       </c>
-      <c r="C39">
-        <v>19</v>
-      </c>
-      <c r="D39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E39" t="s">
-        <v>13</v>
-      </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K39" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>44020.615972222222</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C40">
         <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G40" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H40" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I40" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J40" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>44020.62222222222</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C41">
         <v>24</v>
       </c>
       <c r="D41" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E41" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K41" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>44020.622916666667</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C42">
         <v>24</v>
       </c>
       <c r="D42" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E42" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K42" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>44020.622916666667</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C43">
         <v>22</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E43" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F43" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K43" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>44020.623611111114</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C44">
         <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E44" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H44" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
@@ -2282,2026 +2171,2026 @@
         <v>44020.629861111112</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="G45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K45" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44020.630555555559</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C46">
         <v>23</v>
       </c>
       <c r="D46" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E46" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J46" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K46" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>44020.631249999999</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C47">
         <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G47" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H47" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I47" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J47" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K47" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>44020.633333333331</v>
       </c>
       <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>19</v>
+      </c>
+      <c r="D48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" t="s">
         <v>11</v>
       </c>
-      <c r="C48">
-        <v>19</v>
-      </c>
-      <c r="D48" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" t="s">
-        <v>13</v>
-      </c>
       <c r="F48" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G48" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H48" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I48" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J48" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K48" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>44020.634722222225</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C49">
         <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E49" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F49" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G49" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H49" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I49" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J49" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K49" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>44020.634722222225</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C50">
         <v>24</v>
       </c>
       <c r="D50" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E50" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G50" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H50" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I50" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J50" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K50" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>44020.637499999997</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C51">
         <v>24</v>
       </c>
       <c r="D51" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E51" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F51" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G51" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H51" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I51" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J51" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K51" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>44020.643750000003</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C52">
         <v>23</v>
       </c>
       <c r="D52" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E52" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G52" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I52" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J52" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K52" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>44020.650694444441</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C53">
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E53" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F53" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G53" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H53" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I53" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J53" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K53" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>44020.657638888886</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C54">
         <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E54" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G54" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H54" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I54" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J54" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K54" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>44020.658333333333</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C55">
         <v>20</v>
       </c>
       <c r="D55" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E55" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G55" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I55" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J55" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K55" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>44020.664583333331</v>
       </c>
       <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <v>19</v>
+      </c>
+      <c r="D56" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" t="s">
         <v>11</v>
       </c>
-      <c r="C56">
-        <v>19</v>
-      </c>
-      <c r="D56" t="s">
-        <v>28</v>
-      </c>
-      <c r="E56" t="s">
-        <v>13</v>
-      </c>
       <c r="F56" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G56" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H56" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I56" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J56" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K56" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>44020.665277777778</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C57">
         <v>21</v>
       </c>
       <c r="D57" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E57" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G57" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H57" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I57" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J57" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K57" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>44020.672222222223</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C58">
         <v>23</v>
       </c>
       <c r="D58" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E58" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F58" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G58" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H58" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I58" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J58" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K58" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>44020.681250000001</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C59">
         <v>20</v>
       </c>
       <c r="D59" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E59" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G59" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H59" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I59" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J59" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K59" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>44020.681944444441</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C60">
         <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E60" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G60" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H60" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I60" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J60" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K60" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>44020.69027777778</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C61">
         <v>23</v>
       </c>
       <c r="D61" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E61" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G61" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H61" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I61" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J61" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K61" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>44020.69027777778</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C62">
         <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="E62" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G62" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H62" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I62" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J62" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K62" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>44020.703472222223</v>
       </c>
       <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63">
+        <v>19</v>
+      </c>
+      <c r="D63" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" t="s">
         <v>11</v>
       </c>
-      <c r="C63">
-        <v>19</v>
-      </c>
-      <c r="D63" t="s">
-        <v>28</v>
-      </c>
-      <c r="E63" t="s">
-        <v>13</v>
-      </c>
       <c r="F63" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G63" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H63" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I63" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J63" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K63" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>44020.711805555555</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C64">
         <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="E64" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G64" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H64" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I64" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J64" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K64" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>44020.734027777777</v>
       </c>
       <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65">
+        <v>24</v>
+      </c>
+      <c r="D65" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" t="s">
         <v>11</v>
       </c>
-      <c r="C65">
-        <v>24</v>
-      </c>
-      <c r="D65" t="s">
-        <v>55</v>
-      </c>
-      <c r="E65" t="s">
-        <v>13</v>
-      </c>
       <c r="F65" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G65" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H65" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I65" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J65" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K65" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>44020.740277777775</v>
       </c>
       <c r="B66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66">
+        <v>24</v>
+      </c>
+      <c r="D66" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66" t="s">
         <v>11</v>
       </c>
-      <c r="C66">
-        <v>24</v>
-      </c>
-      <c r="D66" t="s">
-        <v>46</v>
-      </c>
-      <c r="E66" t="s">
-        <v>13</v>
-      </c>
       <c r="F66" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G66" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H66" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I66" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J66" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K66" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>44020.743055555555</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C67">
         <v>23</v>
       </c>
       <c r="D67" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="E67" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G67" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H67" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I67" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J67" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K67" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>44020.756944444445</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C68">
         <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E68" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G68" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H68" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I68" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J68" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>44020.757638888892</v>
       </c>
       <c r="B69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69">
+        <v>19</v>
+      </c>
+      <c r="D69" t="s">
+        <v>32</v>
+      </c>
+      <c r="E69" t="s">
         <v>17</v>
       </c>
-      <c r="C69">
-        <v>19</v>
-      </c>
-      <c r="D69" t="s">
-        <v>57</v>
-      </c>
-      <c r="E69" t="s">
-        <v>22</v>
-      </c>
       <c r="F69" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G69" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I69" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J69" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K69" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>44020.795138888891</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C70">
         <v>18</v>
       </c>
       <c r="D70" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="E70" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G70" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H70" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I70" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J70" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K70" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>44020.813888888886</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C71">
         <v>24</v>
       </c>
       <c r="D71" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="E71" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G71" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H71" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I71" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J71" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>44020.85833333333</v>
       </c>
       <c r="B72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>24</v>
+      </c>
+      <c r="D72" t="s">
+        <v>32</v>
+      </c>
+      <c r="E72" t="s">
         <v>11</v>
       </c>
-      <c r="C72">
-        <v>24</v>
-      </c>
-      <c r="D72" t="s">
-        <v>48</v>
-      </c>
-      <c r="E72" t="s">
-        <v>13</v>
-      </c>
       <c r="F72" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G72" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H72" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I72" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J72" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K72" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>44020.88958333333</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C73">
         <v>18</v>
       </c>
       <c r="D73" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E73" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F73" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G73" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H73" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I73" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J73" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K73" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>44020.940972222219</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C74">
         <v>19</v>
       </c>
       <c r="D74" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E74" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G74" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I74" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J74" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K74" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>44021.289583333331</v>
       </c>
       <c r="B75" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C75">
         <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E75" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="G75" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H75" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I75" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J75" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K75" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>44021.488194444442</v>
       </c>
       <c r="B76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76">
+        <v>24</v>
+      </c>
+      <c r="D76" t="s">
+        <v>24</v>
+      </c>
+      <c r="E76" t="s">
         <v>17</v>
       </c>
-      <c r="C76">
-        <v>24</v>
-      </c>
-      <c r="D76" t="s">
-        <v>20</v>
-      </c>
-      <c r="E76" t="s">
-        <v>22</v>
-      </c>
       <c r="F76" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G76" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H76" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I76" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J76" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K76" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>44021.497916666667</v>
       </c>
       <c r="B77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77">
+        <v>24</v>
+      </c>
+      <c r="D77" t="s">
+        <v>26</v>
+      </c>
+      <c r="E77" t="s">
         <v>11</v>
       </c>
-      <c r="C77">
-        <v>24</v>
-      </c>
-      <c r="D77" t="s">
-        <v>37</v>
-      </c>
-      <c r="E77" t="s">
-        <v>13</v>
-      </c>
       <c r="F77" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G77" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H77" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I77" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J77" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K77" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>44021.552083333336</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C78">
         <v>23</v>
       </c>
       <c r="D78" t="s">
+        <v>26</v>
+      </c>
+      <c r="E78" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" t="s">
         <v>12</v>
       </c>
-      <c r="E78" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" t="s">
-        <v>14</v>
-      </c>
       <c r="G78" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H78" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I78" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J78" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K78" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>44021.76666666667</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C79">
         <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="E79" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G79" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H79" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I79" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J79" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K79" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>44025.421898148146</v>
       </c>
       <c r="B80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C80">
         <v>19</v>
       </c>
       <c r="D80" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="E80" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F80" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="G80" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H80" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I80" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J80" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K80" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>44025.423958333333</v>
       </c>
       <c r="B81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C81">
         <v>18</v>
       </c>
       <c r="D81" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E81" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F81" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G81" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H81" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I81" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J81" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K81" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>44025.42460648148</v>
       </c>
       <c r="B82" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C82">
         <v>24</v>
       </c>
       <c r="D82" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="E82" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F82" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G82" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I82" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J82" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K82" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>44025.425208333334</v>
       </c>
       <c r="B83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C83">
         <v>24</v>
       </c>
       <c r="D83" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="E83" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F83" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G83" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H83" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I83" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J83" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K83" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>44025.425300925926</v>
       </c>
       <c r="B84" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84">
+        <v>19</v>
+      </c>
+      <c r="D84" t="s">
+        <v>26</v>
+      </c>
+      <c r="E84" t="s">
         <v>11</v>
       </c>
-      <c r="C84">
-        <v>19</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="F84" t="s">
         <v>12</v>
       </c>
-      <c r="E84" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" t="s">
-        <v>14</v>
-      </c>
       <c r="G84" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H84" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I84" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J84" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K84" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>44025.425324074073</v>
       </c>
       <c r="B85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C85">
         <v>19</v>
       </c>
       <c r="D85" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="E85" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G85" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H85" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I85" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J85" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K85" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>44025.426921296297</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C86">
         <v>23</v>
       </c>
       <c r="D86" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="E86" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G86" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H86" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I86" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J86" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K86" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>44025.440127314818</v>
       </c>
       <c r="B87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C87">
         <v>18</v>
       </c>
       <c r="D87" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="E87" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G87" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H87" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I87" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J87" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K87" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>44025.440370370372</v>
       </c>
       <c r="B88" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C88">
         <v>19</v>
       </c>
       <c r="D88" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="E88" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G88" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H88" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I88" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J88" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K88" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>44025.490428240744</v>
       </c>
       <c r="B89" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C89">
         <v>18</v>
       </c>
       <c r="D89" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="E89" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G89" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H89" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I89" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J89" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K89" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>44025.492384259262</v>
       </c>
       <c r="B90" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C90">
         <v>24</v>
       </c>
       <c r="D90" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E90" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G90" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H90" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I90" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J90" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K90" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>44025.496504629627</v>
       </c>
       <c r="B91" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C91">
         <v>24</v>
       </c>
       <c r="D91" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E91" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G91" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H91" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I91" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J91" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K91" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>44025.581377314818</v>
       </c>
       <c r="B92" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C92">
         <v>23</v>
       </c>
       <c r="D92" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E92" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F92" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G92" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H92" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I92" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J92" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K92" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>44025.609861111108</v>
       </c>
       <c r="B93" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C93">
         <v>18</v>
       </c>
       <c r="D93" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="E93" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F93" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G93" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H93" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I93" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J93" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K93" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>44025.616724537038</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C94">
         <v>19</v>
       </c>
       <c r="D94" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E94" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G94" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I94" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J94" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K94" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>44025.677233796298</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C95">
         <v>18</v>
       </c>
       <c r="D95" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E95" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G95" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H95" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I95" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J95" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K95" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>44025.729675925926</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C96">
         <v>24</v>
       </c>
       <c r="D96" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="E96" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F96" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="G96" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H96" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I96" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J96" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K96" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>44025.797592592593</v>
       </c>
       <c r="B97" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C97">
         <v>18</v>
       </c>
       <c r="D97" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="E97" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G97" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H97" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I97" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J97" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K97" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>44025.831122685187</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C98">
         <v>21</v>
       </c>
       <c r="D98" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E98" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G98" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H98" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I98" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J98" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K98" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>44025.890069444446</v>
       </c>
       <c r="B99" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C99">
         <v>18</v>
       </c>
       <c r="D99" t="s">
+        <v>26</v>
+      </c>
+      <c r="E99" t="s">
+        <v>16</v>
+      </c>
+      <c r="F99" t="s">
         <v>12</v>
       </c>
-      <c r="E99" t="s">
-        <v>19</v>
-      </c>
-      <c r="F99" t="s">
-        <v>14</v>
-      </c>
       <c r="G99" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H99" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I99" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J99" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K99" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>44025.890925925924</v>
       </c>
       <c r="B100" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C100">
         <v>19</v>
       </c>
       <c r="D100" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="E100" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F100" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G100" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I100" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J100" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K100" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>44025.891631944447</v>
       </c>
       <c r="B101" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C101">
         <v>23</v>
       </c>
       <c r="D101" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E101" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F101" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G101" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H101" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I101" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J101" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K101" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>44030.844687500001</v>
       </c>
       <c r="B102" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C102">
         <v>20</v>
       </c>
       <c r="D102" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E102" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F102" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G102" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H102" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I102" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J102" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K102" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
